--- a/file/newLearn.xlsx
+++ b/file/newLearn.xlsx
@@ -727,10 +727,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>每週四</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>19:30-20:30</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1084,6 +1080,10 @@
   <si>
     <t>四五</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1921,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="D82" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1936,7 +1936,7 @@
     <col min="7" max="7" width="18.125" customWidth="1"/>
     <col min="8" max="8" width="18.875" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="27.25" customWidth="1"/>
     <col min="11" max="11" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1985,7 +1985,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -4322,7 +4322,7 @@
         <v>44889</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>129</v>
@@ -4436,7 +4436,7 @@
         <v>32</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I72" s="11" t="s">
         <v>34</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B79" s="24" t="s">
         <v>154</v>
@@ -4678,13 +4678,13 @@
         <v>44866</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>156</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I79" s="11" t="s">
         <v>34</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B80" s="24" t="s">
         <v>154</v>
@@ -4716,7 +4716,7 @@
         <v>44869</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>159</v>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="81" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B81" s="24" t="s">
         <v>154</v>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="82" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B82" s="24" t="s">
         <v>154</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="83" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B83" s="27" t="s">
         <v>154</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B84" s="24" t="s">
         <v>154</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B85" s="24" t="s">
         <v>154</v>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="86" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B86" s="27" t="s">
         <v>154</v>
@@ -4961,7 +4961,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B87" s="39" t="s">
         <v>65</v>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B88" s="47" t="s">
         <v>65</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B89" s="47" t="s">
         <v>65</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="90" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B90" s="47" t="s">
         <v>65</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="91" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B91" s="51" t="s">
         <v>65</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B92" s="59" t="s">
         <v>154</v>
@@ -5151,22 +5151,22 @@
         <v>44868</v>
       </c>
       <c r="F92" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G92" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="G92" s="63" t="s">
+      <c r="H92" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="H92" s="64" t="s">
+      <c r="I92" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="I92" s="64" t="s">
+      <c r="J92" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="J92" s="64" t="s">
+      <c r="K92" s="65" t="s">
         <v>196</v>
-      </c>
-      <c r="K92" s="65" t="s">
-        <v>197</v>
       </c>
       <c r="L92" s="66" t="s">
         <v>35</v>
@@ -5174,13 +5174,13 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B93" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>16</v>
@@ -5189,22 +5189,22 @@
         <v>44883</v>
       </c>
       <c r="F93" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="H93" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="H93" s="11" t="s">
+      <c r="I93" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="I93" s="11" t="s">
+      <c r="J93" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="J93" s="11" t="s">
+      <c r="K93" s="23" t="s">
         <v>203</v>
-      </c>
-      <c r="K93" s="23" t="s">
-        <v>204</v>
       </c>
       <c r="L93" s="26" t="s">
         <v>35</v>
@@ -5212,7 +5212,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B94" s="24" t="s">
         <v>154</v>
@@ -5234,16 +5234,16 @@
         <v>93</v>
       </c>
       <c r="H94" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I94" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="I94" s="11" t="s">
+      <c r="J94" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="J94" s="11" t="s">
+      <c r="K94" s="23" t="s">
         <v>207</v>
-      </c>
-      <c r="K94" s="23" t="s">
-        <v>208</v>
       </c>
       <c r="L94" s="26" t="s">
         <v>35</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B95" s="24" t="s">
         <v>154</v>
@@ -5270,25 +5270,25 @@
         <v>一</v>
       </c>
       <c r="G95" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="J95" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="K95" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="K95" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="L95" s="67"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B96" s="24" t="s">
         <v>154</v>
@@ -5307,31 +5307,31 @@
         <v>一</v>
       </c>
       <c r="G96" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="I96" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="J96" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J96" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="K96" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L96" s="67"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B97" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>27</v>
@@ -5344,25 +5344,25 @@
         <v>一</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>78</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J97" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K97" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="K97" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="L97" s="67"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B98" s="24" t="s">
         <v>154</v>
@@ -5381,29 +5381,29 @@
         <v>一</v>
       </c>
       <c r="G98" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L98" s="67"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B99" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>27</v>
@@ -5416,25 +5416,25 @@
         <v>一</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H99" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I99" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="I99" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="J99" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K99" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="K99" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="L99" s="67"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B100" s="24" t="s">
         <v>154</v>
@@ -5453,19 +5453,19 @@
         <v>三</v>
       </c>
       <c r="G100" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H100" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="H100" s="11" t="s">
+      <c r="I100" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="I100" s="11" t="s">
+      <c r="J100" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J100" s="11" t="s">
+      <c r="K100" s="23" t="s">
         <v>228</v>
-      </c>
-      <c r="K100" s="23" t="s">
-        <v>229</v>
       </c>
       <c r="L100" s="26" t="s">
         <v>35</v>
@@ -5473,10 +5473,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B101" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C101" s="22" t="s">
         <v>118</v>
@@ -5501,14 +5501,14 @@
         <v>72</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K101" s="12"/>
       <c r="L101" s="48"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B102" s="47" t="s">
         <v>65</v>
@@ -5530,20 +5530,20 @@
         <v>175</v>
       </c>
       <c r="H102" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I102" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="J102" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="K102" s="12"/>
       <c r="L102" s="48"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B103" s="24" t="s">
         <v>154</v>
@@ -5562,19 +5562,19 @@
         <v>六</v>
       </c>
       <c r="G103" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H103" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="H103" s="11" t="s">
+      <c r="I103" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="I103" s="11" t="s">
+      <c r="J103" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="K103" s="23" t="s">
         <v>237</v>
-      </c>
-      <c r="J103" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="K103" s="23" t="s">
-        <v>238</v>
       </c>
       <c r="L103" s="26" t="s">
         <v>35</v>
@@ -5582,13 +5582,13 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B104" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>27</v>
@@ -5601,16 +5601,16 @@
         <v>六</v>
       </c>
       <c r="G104" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H104" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>240</v>
       </c>
       <c r="I104" s="11" t="s">
         <v>86</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K104" s="12"/>
       <c r="L104" s="26" t="s">
@@ -5619,13 +5619,13 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B105" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>27</v>
@@ -5638,25 +5638,25 @@
         <v>二</v>
       </c>
       <c r="G105" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H105" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="H105" s="11" t="s">
+      <c r="I105" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="I105" s="11" t="s">
+      <c r="J105" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="J105" s="11" t="s">
+      <c r="K105" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="K105" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="L105" s="26"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B106" s="24" t="s">
         <v>154</v>
@@ -5675,19 +5675,19 @@
         <v>三</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I106" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="J106" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J106" s="11" t="s">
+      <c r="K106" s="23" t="s">
         <v>228</v>
-      </c>
-      <c r="K106" s="23" t="s">
-        <v>229</v>
       </c>
       <c r="L106" s="26" t="s">
         <v>35</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B107" s="24" t="s">
         <v>154</v>
@@ -5714,16 +5714,16 @@
         <v>三</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I107" s="11" t="s">
         <v>86</v>
       </c>
       <c r="J107" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K107" s="12"/>
       <c r="L107" s="26" t="s">
@@ -5732,10 +5732,10 @@
     </row>
     <row r="108" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B108" s="47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C108" s="22" t="s">
         <v>179</v>
@@ -5751,23 +5751,23 @@
         <v>四</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>188</v>
       </c>
       <c r="I108" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J108" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="K108" s="49"/>
       <c r="L108" s="50"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B109" s="24" t="s">
         <v>154</v>
@@ -5786,19 +5786,19 @@
         <v>四</v>
       </c>
       <c r="G109" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H109" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="H109" s="11" t="s">
+      <c r="I109" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="I109" s="11" t="s">
+      <c r="J109" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="K109" s="23" t="s">
         <v>254</v>
-      </c>
-      <c r="J109" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="K109" s="23" t="s">
-        <v>255</v>
       </c>
       <c r="L109" s="26" t="s">
         <v>35</v>
@@ -5806,10 +5806,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B110" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C110" s="22" t="s">
         <v>118</v>
@@ -5825,29 +5825,29 @@
         <v>五</v>
       </c>
       <c r="G110" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H110" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>72</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K110" s="12"/>
       <c r="L110" s="48"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B111" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>27</v>
@@ -5860,19 +5860,19 @@
         <v>日</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H111" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="I111" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="I111" s="11" t="s">
+      <c r="J111" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="K111" s="23" t="s">
         <v>259</v>
-      </c>
-      <c r="J111" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="K111" s="23" t="s">
-        <v>260</v>
       </c>
       <c r="L111" s="26" t="s">
         <v>35</v>
@@ -5880,13 +5880,13 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B112" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>27</v>
@@ -5899,19 +5899,19 @@
         <v>三</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H112" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="J112" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="I112" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="J112" s="11" t="s">
-        <v>262</v>
-      </c>
       <c r="K112" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L112" s="26" t="s">
         <v>35</v>
@@ -5919,13 +5919,13 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B113" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>27</v>
@@ -5938,16 +5938,16 @@
         <v>五</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I113" s="11" t="s">
         <v>86</v>
       </c>
       <c r="J113" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K113" s="12"/>
       <c r="L113" s="26" t="s">
@@ -5956,13 +5956,13 @@
     </row>
     <row r="114" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B114" s="27" t="s">
         <v>154</v>
       </c>
       <c r="C114" s="68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D114" s="36" t="s">
         <v>27</v>
@@ -5975,19 +5975,19 @@
         <v>日</v>
       </c>
       <c r="G114" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H114" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="H114" s="36" t="s">
+      <c r="I114" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="I114" s="36" t="s">
+      <c r="J114" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="K114" s="69" t="s">
         <v>266</v>
-      </c>
-      <c r="J114" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="K114" s="69" t="s">
-        <v>267</v>
       </c>
       <c r="L114" s="38" t="s">
         <v>35</v>
@@ -5995,13 +5995,13 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B115" s="70" t="s">
         <v>154</v>
       </c>
       <c r="C115" s="71" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D115" s="72" t="s">
         <v>27</v>
@@ -6014,19 +6014,19 @@
         <v>三</v>
       </c>
       <c r="G115" s="75" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H115" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="I115" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="I115" s="72" t="s">
+      <c r="J115" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="J115" s="72" t="s">
+      <c r="K115" s="76" t="s">
         <v>270</v>
-      </c>
-      <c r="K115" s="76" t="s">
-        <v>271</v>
       </c>
       <c r="L115" s="77" t="s">
         <v>35</v>
@@ -6034,13 +6034,13 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B116" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>27</v>
@@ -6056,16 +6056,16 @@
         <v>93</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I116" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="J116" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="J116" s="11" t="s">
+      <c r="K116" s="23" t="s">
         <v>270</v>
-      </c>
-      <c r="K116" s="23" t="s">
-        <v>271</v>
       </c>
       <c r="L116" s="26" t="s">
         <v>35</v>
@@ -6073,13 +6073,13 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B117" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>27</v>
@@ -6092,19 +6092,19 @@
         <v>五</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I117" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="J117" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="J117" s="11" t="s">
+      <c r="K117" s="23" t="s">
         <v>270</v>
-      </c>
-      <c r="K117" s="23" t="s">
-        <v>271</v>
       </c>
       <c r="L117" s="26" t="s">
         <v>35</v>
@@ -6112,13 +6112,13 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B118" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>27</v>
@@ -6131,31 +6131,31 @@
         <v>日</v>
       </c>
       <c r="G118" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H118" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H118" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="I118" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J118" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="J118" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="K118" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L118" s="67"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B119" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>27</v>
@@ -6168,31 +6168,31 @@
         <v>日</v>
       </c>
       <c r="G119" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H119" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H119" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="I119" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K119" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L119" s="67"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B120" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>27</v>
@@ -6205,29 +6205,29 @@
         <v>日</v>
       </c>
       <c r="G120" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="H120" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="I120" s="1"/>
       <c r="J120" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L120" s="67"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B121" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>27</v>
@@ -6240,29 +6240,29 @@
         <v>日</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I121" s="1"/>
       <c r="J121" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L121" s="67"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B122" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>27</v>
@@ -6275,29 +6275,29 @@
         <v>日</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I122" s="1"/>
       <c r="J122" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L122" s="67"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B123" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D123" s="11" t="s">
         <v>27</v>
@@ -6310,19 +6310,19 @@
         <v>二</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I123" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="J123" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="J123" s="11" t="s">
+      <c r="K123" s="23" t="s">
         <v>270</v>
-      </c>
-      <c r="K123" s="23" t="s">
-        <v>271</v>
       </c>
       <c r="L123" s="26" t="s">
         <v>35</v>
@@ -6330,13 +6330,13 @@
     </row>
     <row r="124" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B124" s="27" t="s">
         <v>154</v>
       </c>
       <c r="C124" s="68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D124" s="36" t="s">
         <v>27</v>
@@ -6349,19 +6349,19 @@
         <v>日</v>
       </c>
       <c r="G124" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="H124" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="H124" s="36" t="s">
+      <c r="I124" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="I124" s="36" t="s">
+      <c r="J124" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="J124" s="36" t="s">
+      <c r="K124" s="69" t="s">
         <v>284</v>
-      </c>
-      <c r="K124" s="69" t="s">
-        <v>285</v>
       </c>
       <c r="L124" s="38" t="s">
         <v>35</v>
@@ -6394,5 +6394,6 @@
     <hyperlink ref="K103" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId23"/>
 </worksheet>
 </file>
--- a/file/newLearn.xlsx
+++ b/file/newLearn.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="297">
   <si>
     <t>每月固定課程</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -762,10 +762,6 @@
     <t>黃盈琪</t>
   </si>
   <si>
-    <t>02Carefree教室</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://docs.google.com/forms/d/1vjGK3Ftp0a2gisRPzI1rNPYs_fhR_6LnvkUy4onxGlY/edit</t>
   </si>
   <si>
@@ -773,10 +769,6 @@
   </si>
   <si>
     <t>愛樂芬</t>
-  </si>
-  <si>
-    <t>02Carefree教室</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://forms.gle/2ohDCx7QMWaoCdTz5</t>
@@ -854,10 +846,6 @@
     <t>多多老師</t>
   </si>
   <si>
-    <t>02Carefree教室</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://forms.gle/nHJwYQcReBw3ofP39</t>
   </si>
   <si>
@@ -972,10 +960,6 @@
     <t>寶寶手語體驗</t>
   </si>
   <si>
-    <t>02Carefree教室</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>18:00-20:00</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1015,10 +999,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>03喵喵團隊南部據點</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>貝兒</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1045,10 +1025,6 @@
   </si>
   <si>
     <t>佳容</t>
-  </si>
-  <si>
-    <t>03高雄鼓山</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://forms.gle/F4U9MRpnSLknrQzAA</t>
@@ -1083,6 +1059,46 @@
   </si>
   <si>
     <t>四</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>02台中 Carefree教室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>02台中 Carefree教室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>02台中 Carefree教室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>04喵喵團隊南部據點</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>04喵喵團隊南部據點</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>04喵喵團隊南部據點</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>04喵喵團隊南部據點</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>04喵喵團隊南部據點</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>05高雄鼓山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>02台中 Carefree教室</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1921,8 +1937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D82" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1985,7 +2001,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -4322,7 +4338,7 @@
         <v>44889</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>129</v>
@@ -4436,7 +4452,7 @@
         <v>32</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="I72" s="11" t="s">
         <v>34</v>
@@ -4663,7 +4679,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B79" s="24" t="s">
         <v>154</v>
@@ -4678,13 +4694,13 @@
         <v>44866</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>156</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="I79" s="11" t="s">
         <v>34</v>
@@ -4701,7 +4717,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B80" s="24" t="s">
         <v>154</v>
@@ -4716,7 +4732,7 @@
         <v>44869</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>159</v>
@@ -4739,7 +4755,7 @@
     </row>
     <row r="81" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B81" s="24" t="s">
         <v>154</v>
@@ -4776,7 +4792,7 @@
     </row>
     <row r="82" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B82" s="24" t="s">
         <v>154</v>
@@ -4813,7 +4829,7 @@
     </row>
     <row r="83" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B83" s="27" t="s">
         <v>154</v>
@@ -4850,7 +4866,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B84" s="24" t="s">
         <v>154</v>
@@ -4887,7 +4903,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B85" s="24" t="s">
         <v>154</v>
@@ -4924,7 +4940,7 @@
     </row>
     <row r="86" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B86" s="27" t="s">
         <v>154</v>
@@ -4961,7 +4977,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B87" s="39" t="s">
         <v>65</v>
@@ -4996,7 +5012,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B88" s="47" t="s">
         <v>65</v>
@@ -5031,7 +5047,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B89" s="47" t="s">
         <v>65</v>
@@ -5066,7 +5082,7 @@
     </row>
     <row r="90" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B90" s="47" t="s">
         <v>65</v>
@@ -5101,7 +5117,7 @@
     </row>
     <row r="91" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B91" s="51" t="s">
         <v>65</v>
@@ -5136,7 +5152,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B92" s="59" t="s">
         <v>154</v>
@@ -5151,7 +5167,7 @@
         <v>44868</v>
       </c>
       <c r="F92" s="62" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G92" s="63" t="s">
         <v>192</v>
@@ -5174,7 +5190,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B93" s="24" t="s">
         <v>154</v>
@@ -5201,10 +5217,10 @@
         <v>201</v>
       </c>
       <c r="J93" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="K93" s="23" t="s">
         <v>202</v>
-      </c>
-      <c r="K93" s="23" t="s">
-        <v>203</v>
       </c>
       <c r="L93" s="26" t="s">
         <v>35</v>
@@ -5212,7 +5228,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B94" s="24" t="s">
         <v>154</v>
@@ -5234,16 +5250,16 @@
         <v>93</v>
       </c>
       <c r="H94" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I94" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="I94" s="11" t="s">
+      <c r="J94" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="K94" s="23" t="s">
         <v>205</v>
-      </c>
-      <c r="J94" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="K94" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="L94" s="26" t="s">
         <v>35</v>
@@ -5251,7 +5267,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B95" s="24" t="s">
         <v>154</v>
@@ -5270,25 +5286,25 @@
         <v>一</v>
       </c>
       <c r="G95" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I95" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="J95" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="K95" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K95" s="12" t="s">
-        <v>212</v>
       </c>
       <c r="L95" s="67"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B96" s="24" t="s">
         <v>154</v>
@@ -5307,25 +5323,25 @@
         <v>一</v>
       </c>
       <c r="G96" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="J96" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="I96" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="K96" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L96" s="67"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B97" s="24" t="s">
         <v>154</v>
@@ -5344,25 +5360,25 @@
         <v>一</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>78</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L97" s="67"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B98" s="24" t="s">
         <v>154</v>
@@ -5381,29 +5397,29 @@
         <v>一</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L98" s="67"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B99" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>27</v>
@@ -5416,25 +5432,25 @@
         <v>一</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L99" s="67"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B100" s="24" t="s">
         <v>154</v>
@@ -5453,19 +5469,19 @@
         <v>三</v>
       </c>
       <c r="G100" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="I100" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="H100" s="11" t="s">
+      <c r="J100" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="K100" s="23" t="s">
         <v>225</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="J100" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="K100" s="23" t="s">
-        <v>228</v>
       </c>
       <c r="L100" s="26" t="s">
         <v>35</v>
@@ -5473,10 +5489,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B101" s="47" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C101" s="22" t="s">
         <v>118</v>
@@ -5501,14 +5517,14 @@
         <v>72</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K101" s="12"/>
       <c r="L101" s="48"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B102" s="47" t="s">
         <v>65</v>
@@ -5530,20 +5546,20 @@
         <v>175</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K102" s="12"/>
       <c r="L102" s="48"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B103" s="24" t="s">
         <v>154</v>
@@ -5562,19 +5578,19 @@
         <v>六</v>
       </c>
       <c r="G103" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="K103" s="23" t="s">
         <v>234</v>
-      </c>
-      <c r="H103" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="J103" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="K103" s="23" t="s">
-        <v>237</v>
       </c>
       <c r="L103" s="26" t="s">
         <v>35</v>
@@ -5582,7 +5598,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B104" s="24" t="s">
         <v>154</v>
@@ -5601,16 +5617,16 @@
         <v>六</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I104" s="11" t="s">
         <v>86</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K104" s="12"/>
       <c r="L104" s="26" t="s">
@@ -5619,7 +5635,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B105" s="24" t="s">
         <v>154</v>
@@ -5638,25 +5654,25 @@
         <v>二</v>
       </c>
       <c r="G105" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J105" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="H105" s="11" t="s">
+      <c r="K105" s="12" t="s">
         <v>242</v>
-      </c>
-      <c r="I105" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="J105" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="K105" s="12" t="s">
-        <v>245</v>
       </c>
       <c r="L105" s="26"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B106" s="24" t="s">
         <v>154</v>
@@ -5675,19 +5691,19 @@
         <v>三</v>
       </c>
       <c r="G106" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="I106" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="H106" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="I106" s="11" t="s">
-        <v>226</v>
-      </c>
       <c r="J106" s="11" t="s">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="K106" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L106" s="26" t="s">
         <v>35</v>
@@ -5695,7 +5711,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B107" s="24" t="s">
         <v>154</v>
@@ -5714,16 +5730,16 @@
         <v>三</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I107" s="11" t="s">
         <v>86</v>
       </c>
       <c r="J107" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K107" s="12"/>
       <c r="L107" s="26" t="s">
@@ -5732,10 +5748,10 @@
     </row>
     <row r="108" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B108" s="47" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C108" s="22" t="s">
         <v>179</v>
@@ -5751,23 +5767,23 @@
         <v>四</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>188</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K108" s="49"/>
       <c r="L108" s="50"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B109" s="24" t="s">
         <v>154</v>
@@ -5786,19 +5802,19 @@
         <v>四</v>
       </c>
       <c r="G109" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="K109" s="23" t="s">
         <v>251</v>
-      </c>
-      <c r="H109" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="I109" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="J109" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="K109" s="23" t="s">
-        <v>254</v>
       </c>
       <c r="L109" s="26" t="s">
         <v>35</v>
@@ -5806,10 +5822,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B110" s="47" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C110" s="22" t="s">
         <v>118</v>
@@ -5825,29 +5841,29 @@
         <v>五</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>72</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K110" s="12"/>
       <c r="L110" s="48"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B111" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>27</v>
@@ -5860,19 +5876,19 @@
         <v>日</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J111" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K111" s="23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L111" s="26" t="s">
         <v>35</v>
@@ -5880,7 +5896,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B112" s="24" t="s">
         <v>154</v>
@@ -5899,19 +5915,19 @@
         <v>三</v>
       </c>
       <c r="G112" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="I112" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="H112" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="I112" s="11" t="s">
-        <v>226</v>
-      </c>
       <c r="J112" s="11" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="K112" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L112" s="26" t="s">
         <v>35</v>
@@ -5919,13 +5935,13 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B113" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>27</v>
@@ -5938,16 +5954,16 @@
         <v>五</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I113" s="11" t="s">
         <v>86</v>
       </c>
       <c r="J113" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K113" s="12"/>
       <c r="L113" s="26" t="s">
@@ -5956,7 +5972,7 @@
     </row>
     <row r="114" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B114" s="27" t="s">
         <v>154</v>
@@ -5975,19 +5991,19 @@
         <v>日</v>
       </c>
       <c r="G114" s="28" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H114" s="36" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I114" s="36" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J114" s="36" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="K114" s="69" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L114" s="38" t="s">
         <v>35</v>
@@ -5995,7 +6011,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B115" s="70" t="s">
         <v>154</v>
@@ -6014,19 +6030,19 @@
         <v>三</v>
       </c>
       <c r="G115" s="75" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H115" s="72" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I115" s="72" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J115" s="72" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K115" s="76" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L115" s="77" t="s">
         <v>35</v>
@@ -6034,7 +6050,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B116" s="24" t="s">
         <v>154</v>
@@ -6056,16 +6072,16 @@
         <v>93</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J116" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K116" s="23" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L116" s="26" t="s">
         <v>35</v>
@@ -6073,7 +6089,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B117" s="24" t="s">
         <v>154</v>
@@ -6092,19 +6108,19 @@
         <v>五</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J117" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K117" s="23" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L117" s="26" t="s">
         <v>35</v>
@@ -6112,7 +6128,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B118" s="24" t="s">
         <v>154</v>
@@ -6131,25 +6147,25 @@
         <v>日</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L118" s="67"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B119" s="24" t="s">
         <v>154</v>
@@ -6168,25 +6184,25 @@
         <v>日</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="K119" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L119" s="67"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B120" s="24" t="s">
         <v>154</v>
@@ -6205,23 +6221,23 @@
         <v>日</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I120" s="1"/>
       <c r="J120" s="1" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L120" s="67"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B121" s="24" t="s">
         <v>154</v>
@@ -6240,23 +6256,23 @@
         <v>日</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I121" s="1"/>
       <c r="J121" s="1" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L121" s="67"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B122" s="24" t="s">
         <v>154</v>
@@ -6275,23 +6291,23 @@
         <v>日</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I122" s="1"/>
       <c r="J122" s="1" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L122" s="67"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B123" s="24" t="s">
         <v>154</v>
@@ -6310,19 +6326,19 @@
         <v>二</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J123" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K123" s="23" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L123" s="26" t="s">
         <v>35</v>
@@ -6330,7 +6346,7 @@
     </row>
     <row r="124" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B124" s="27" t="s">
         <v>154</v>
@@ -6349,19 +6365,19 @@
         <v>日</v>
       </c>
       <c r="G124" s="28" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H124" s="36" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I124" s="36" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="J124" s="36" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="K124" s="69" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L124" s="38" t="s">
         <v>35</v>
